--- a/biology/Botanique/Glebionis/Glebionis.xlsx
+++ b/biology/Botanique/Glebionis/Glebionis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glebionis est un genre de plante à fleurs de la famille des Asteraceae.
 Ce genre a été créé par Cassini en 1826.
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Europe
-Le genre contient deux espèces en France :
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre contient deux espèces en France :
 Glebionis segetum, la marguerite dorée ou chrysanthème des moissons (synonyme : Chrysanthemum segetum). C'est une plante au capitule large (2,5-4 cm) d'un jaune soutenu, au feuillage vert bleuté, assez courante dans les champs et les terrains vagues. C'est une espèce protégée dans le Limousin.
 Glebionis coronaria, le chrysanthème à couronnes, ou chrysanthème des jardins, espèce méditerranéenne à grand capitule soit entièrement jaune, soit à ligules blanches tachées de jaune à la base.</t>
         </is>
